--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/SettlementInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/SettlementInformation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF20EE-65E1-4BC6-B4C1-1026E9D86E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD1E8A-FD31-46A0-9D6C-BA8ED1288283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3072" yWindow="3072" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,18 +59,6 @@
     <t>[0,2]</t>
   </si>
   <si>
-    <t>settlementId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settlementName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settlementPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +69,15 @@
   <si>
     <t>array&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>TownPos</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -434,24 +431,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/SettlementInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/SettlementInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD1E8A-FD31-46A0-9D6C-BA8ED1288283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C017FB31-4DDF-4491-B4DF-B7CD5898EB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>array&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -78,6 +74,56 @@
   </si>
   <si>
     <t>TownPos</t>
+  </si>
+  <si>
+    <t>city4</t>
+  </si>
+  <si>
+    <t>city5</t>
+  </si>
+  <si>
+    <t>array&lt;float&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.3,-2.3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认财富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitWealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitPopulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -405,20 +451,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,19 +477,37 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -448,10 +515,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -461,8 +537,17 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>100000</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -472,8 +557,17 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1234556</v>
+      </c>
+      <c r="E5">
+        <v>6000</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -482,6 +576,55 @@
       </c>
       <c r="C6" t="s">
         <v>8</v>
+      </c>
+      <c r="D6">
+        <v>80000</v>
+      </c>
+      <c r="E6">
+        <v>30000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>100003</v>
+      </c>
+      <c r="E7">
+        <v>4000</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>60004</v>
+      </c>
+      <c r="E8">
+        <v>10010</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/SettlementInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/SettlementInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C017FB31-4DDF-4491-B4DF-B7CD5898EB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F82572-41DB-4E10-86D8-5D0EC1CD394C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,16 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>city1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city2</t>
-  </si>
-  <si>
-    <t>city3</t>
-  </si>
-  <si>
     <t>[0,0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,12 +66,6 @@
     <t>TownPos</t>
   </si>
   <si>
-    <t>city4</t>
-  </si>
-  <si>
-    <t>city5</t>
-  </si>
-  <si>
     <t>array&lt;float&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +108,22 @@
   <si>
     <t>InitPopulation</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市2</t>
+  </si>
+  <si>
+    <t>城市3</t>
+  </si>
+  <si>
+    <t>城市4</t>
+  </si>
+  <si>
+    <t>城市5</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -478,53 +478,53 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -532,10 +532,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4">
         <v>100000</v>
@@ -552,10 +552,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
       <c r="D5">
         <v>1234556</v>
@@ -572,10 +572,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
       <c r="D6">
         <v>80000</v>
@@ -592,10 +592,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>100003</v>
@@ -612,10 +612,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>60004</v>
